--- a/va_facility_data_2025-02-20/Leo C. Chase Jr. VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Leo%20C.%20Chase%20Jr.%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Leo C. Chase Jr. VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Leo%20C.%20Chase%20Jr.%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rff0a50743d56464787cb24786a67a4dc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R375b71f57fdd4cba98f2ed2ec22d9ead"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Refb6b514d3104927aac7f89b5f806cd5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R01a0f170d8c241e89b6c4873231a5bdc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf239b5ea1e2142469b35d15759b77352"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re2fef5435c094583a06ea0740e5ab514"/>
   </x:sheets>
 </x:workbook>
 </file>
